--- a/medicine/Handicap/Journée_internationale_des_personnes_handicapées/Journée_internationale_des_personnes_handicapées.xlsx
+++ b/medicine/Handicap/Journée_internationale_des_personnes_handicapées/Journée_internationale_des_personnes_handicapées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_internationale_des_personnes_handicap%C3%A9es</t>
+          <t>Journée_internationale_des_personnes_handicapées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Journée mondiale des personnes handicapées est organisée tous les 3 décembre depuis 1992 par les nations unies, afin de soutenir les personnes handicapées. Elle vise à sensibiliser les gens pour des questions relatives à l'incapacité et promouvoir les "Design pour Tous" dans l'intention d'assurer les droits des handicapés, et intégrer les handicapés dans la vie politique, économique et culturelle[1].
+La Journée mondiale des personnes handicapées est organisée tous les 3 décembre depuis 1992 par les nations unies, afin de soutenir les personnes handicapées. Elle vise à sensibiliser les gens pour des questions relatives à l'incapacité et promouvoir les "Design pour Tous" dans l'intention d'assurer les droits des handicapés, et intégrer les handicapés dans la vie politique, économique et culturelle.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_internationale_des_personnes_handicap%C3%A9es</t>
+          <t>Journée_internationale_des_personnes_handicapées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,30 +524,32 @@
           <t>Thèmes des éditions de la Journée internationale des personnes handicapées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1998 : Arts, Cultures et La vie autonome[2]
-1999 : Accessibilité pour  tous pour le nouveau Millénaire[2]
-2000 : Accessibilité des technologies de l’information pour tous[2]
-2001 : Pleine participation et égalité: Appel en faveur de nouvelles démarches pour évaluer  progrès et résultats[2]
-2002 : Vie indépendante et moyens de subsistance durables[2]
-2003 : Notre voix[2]
-2004 : Rien de ce qui nous concerne ne doit être fait sans nous consulter[2]
-2005 : Droits des personnes handicapées : Mesures pour le développement[2]
-2006 : Accessibilité électronique[2]
-2007 : Un travail décent pour les personnes handicapées[2]
-2008 : Convention relative aux droits des personnes handicapées : Dignité et justice pour tous[2]
-2009 : Les OMD pour tous : capacitation des personnes handicapées et de leurs communautés dans le monde entier[2]
-2010 : Tenir la promesse, intégrer la dimension du handicap dans les objectifs du Millénaire[2]
-2011 : Ensemble pour un monde meilleur pour tous : inclure les personnes handicapées dans le développement »[3]
-2012 : Éliminer les obstacles pour favoriser une société inclusive et accessible à tous! [4]
-2013 : Personnes handicapées : briser les barrières, ouvrir les portes; vers une société inclusive et un développement accessible à tous [5]
-2014 : Développement durable: la promesse de la technologie [6]
-2015 : Les questions d'inclusion : accès et autonomisation des personnes handicapées[7]
-2016 : Atteindre 17 objectifs pour l'avenir que nous voulons [8]
-2017 : Transformation vers des sociétés durables et résilientes pour tous [9]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1998 : Arts, Cultures et La vie autonome
+1999 : Accessibilité pour  tous pour le nouveau Millénaire
+2000 : Accessibilité des technologies de l’information pour tous
+2001 : Pleine participation et égalité: Appel en faveur de nouvelles démarches pour évaluer  progrès et résultats
+2002 : Vie indépendante et moyens de subsistance durables
+2003 : Notre voix
+2004 : Rien de ce qui nous concerne ne doit être fait sans nous consulter
+2005 : Droits des personnes handicapées : Mesures pour le développement
+2006 : Accessibilité électronique
+2007 : Un travail décent pour les personnes handicapées
+2008 : Convention relative aux droits des personnes handicapées : Dignité et justice pour tous
+2009 : Les OMD pour tous : capacitation des personnes handicapées et de leurs communautés dans le monde entier
+2010 : Tenir la promesse, intégrer la dimension du handicap dans les objectifs du Millénaire
+2011 : Ensemble pour un monde meilleur pour tous : inclure les personnes handicapées dans le développement »
+2012 : Éliminer les obstacles pour favoriser une société inclusive et accessible à tous! 
+2013 : Personnes handicapées : briser les barrières, ouvrir les portes; vers une société inclusive et un développement accessible à tous 
+2014 : Développement durable: la promesse de la technologie 
+2015 : Les questions d'inclusion : accès et autonomisation des personnes handicapées
+2016 : Atteindre 17 objectifs pour l'avenir que nous voulons 
+2017 : Transformation vers des sociétés durables et résilientes pour tous 
 2018 : Autonomiser les personnes handicapées et assurer la participation et l'égalité
-2019 : Promouvoir la participation et le rôle des personnes handicapées: faire progresser le Programme de développement durable à l'horizon 2030[1]
+2019 : Promouvoir la participation et le rôle des personnes handicapées: faire progresser le Programme de développement durable à l'horizon 2030
 2020 : Reconstruire en mieux - Vers un monde post-COVID-19 inclusif, accessible et durable
 2022 : Des solutions pour un développement inclusif : le rôle de l'innovation pour un monde acesible et équitable
 2023 : Unis dans l'action pour sauver et réaliser les objectifs de développement durable pour, avec et par les personnes handicapées</t>
